--- a/documents/WORK4ME_MRD.xlsx
+++ b/documents/WORK4ME_MRD.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\BasesDeDatos\work4me\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DBA30F-8D15-487B-A80F-585AB88C9570}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B34002-5482-461C-A9B7-E9D4854C0D75}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="66">
   <si>
     <t>varchar(50)</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>FK(CANDIDATES)</t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
 </sst>
 </file>
@@ -596,25 +599,7 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -631,15 +616,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -652,15 +628,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -673,15 +640,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -690,6 +648,51 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -988,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M37" sqref="A1:M37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,22 +1013,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1037,7 +1040,7 @@
       <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="45"/>
+      <c r="D2" s="39"/>
       <c r="E2" s="4" t="s">
         <v>37</v>
       </c>
@@ -1047,11 +1050,11 @@
       <c r="G2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -1063,7 +1066,7 @@
       <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="45"/>
+      <c r="D3" s="39"/>
       <c r="E3" s="8" t="s">
         <v>38</v>
       </c>
@@ -1073,11 +1076,11 @@
       <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1089,7 +1092,7 @@
       <c r="C4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="45"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="8" t="s">
         <v>39</v>
       </c>
@@ -1099,11 +1102,11 @@
       <c r="G4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -1113,7 +1116,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="45"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="8" t="s">
         <v>40</v>
       </c>
@@ -1121,11 +1124,11 @@
         <v>2</v>
       </c>
       <c r="G5" s="10"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
@@ -1134,64 +1137,64 @@
       <c r="B6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="45"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="13" t="s">
         <v>41</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="47"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
     </row>
     <row r="8" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="49"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
     </row>
     <row r="9" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
     </row>
     <row r="10" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
@@ -1209,19 +1212,19 @@
       <c r="E10" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="53" t="s">
+      <c r="F10" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="53" t="s">
+      <c r="G10" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="54" t="s">
+      <c r="H10" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
     </row>
     <row r="11" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
@@ -1239,19 +1242,19 @@
       <c r="E11" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="53" t="s">
+      <c r="F11" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="53" t="s">
+      <c r="G11" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="54" t="s">
+      <c r="H11" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
     </row>
     <row r="12" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
@@ -1269,19 +1272,19 @@
       <c r="E12" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="53" t="s">
+      <c r="F12" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
+      <c r="G12" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
@@ -1293,19 +1296,19 @@
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
-      <c r="F13" s="53" t="s">
+      <c r="F13" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="53" t="s">
+      <c r="G13" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="54" t="s">
+      <c r="H13" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
     </row>
     <row r="14" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
@@ -1319,57 +1322,57 @@
         <v>16</v>
       </c>
       <c r="E14" s="19"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
     </row>
     <row r="16" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="49"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
     </row>
     <row r="17" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
     </row>
     <row r="18" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
@@ -1387,17 +1390,17 @@
       <c r="E18" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="60" t="s">
+      <c r="F18" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="61" t="s">
+      <c r="G18" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
     </row>
     <row r="19" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
@@ -1415,17 +1418,17 @@
       <c r="E19" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="60" t="s">
+      <c r="F19" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="61" t="s">
+      <c r="G19" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
     </row>
     <row r="20" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
@@ -1443,17 +1446,17 @@
       <c r="E20" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F20" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="G20" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
+      <c r="F20" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
     </row>
     <row r="21" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
@@ -1465,17 +1468,17 @@
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
-      <c r="F21" s="60" t="s">
+      <c r="F21" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="G21" s="61" t="s">
+      <c r="G21" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
     </row>
     <row r="22" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
@@ -1489,57 +1492,57 @@
       </c>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
     </row>
     <row r="24" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="48"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
     </row>
     <row r="25" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="64" t="s">
+      <c r="A25" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="66"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="63"/>
     </row>
     <row r="26" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
@@ -1689,21 +1692,21 @@
       <c r="I30" s="31"/>
       <c r="J30" s="31"/>
       <c r="K30" s="31"/>
-      <c r="L30" s="67"/>
+      <c r="L30" s="52"/>
     </row>
     <row r="31" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="48"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
+      <c r="A31" s="42"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
     </row>
     <row r="32" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="70" t="s">
@@ -1759,7 +1762,7 @@
       <c r="L33" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="M33" s="68" t="s">
+      <c r="M33" s="53" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1771,7 +1774,7 @@
         <v>57</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D34" s="33" t="s">
         <v>43</v>
@@ -1800,7 +1803,7 @@
       <c r="L34" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="M34" s="68" t="s">
+      <c r="M34" s="53" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1841,7 +1844,7 @@
       <c r="L35" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="M35" s="68" t="s">
+      <c r="M35" s="53" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1862,7 +1865,7 @@
       <c r="J36" s="33"/>
       <c r="K36" s="33"/>
       <c r="L36" s="33"/>
-      <c r="M36" s="68" t="s">
+      <c r="M36" s="53" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1871,9 +1874,7 @@
         <v>41</v>
       </c>
       <c r="B37" s="36"/>
-      <c r="C37" s="36" t="s">
-        <v>16</v>
-      </c>
+      <c r="C37" s="36"/>
       <c r="D37" s="36"/>
       <c r="E37" s="36"/>
       <c r="F37" s="36"/>
@@ -1883,16 +1884,16 @@
       <c r="J37" s="36"/>
       <c r="K37" s="36"/>
       <c r="L37" s="36"/>
-      <c r="M37" s="69"/>
+      <c r="M37" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A32:M32"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A25:L25"/>
     <mergeCell ref="A17:G17"/>
     <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A32:M32"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/WORK4ME_MRD.xlsx
+++ b/documents/WORK4ME_MRD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\BasesDeDatos\work4me\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B34002-5482-461C-A9B7-E9D4854C0D75}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522C265B-8B05-4211-9430-3DBF2EAE6463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="70">
   <si>
     <t>varchar(50)</t>
   </si>
@@ -153,9 +153,6 @@
     <t>Domain</t>
   </si>
   <si>
-    <t>Boolean</t>
-  </si>
-  <si>
     <t>longBlob</t>
   </si>
   <si>
@@ -223,6 +220,21 @@
   </si>
   <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>varchar(350)</t>
+  </si>
+  <si>
+    <t>tinyinteger(1)</t>
+  </si>
+  <si>
+    <t>varchar(70)</t>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+  </si>
+  <si>
+    <t>UNIQUE</t>
   </si>
 </sst>
 </file>
@@ -649,6 +661,15 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -667,15 +688,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -694,13 +706,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -991,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,17 +1025,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="60"/>
+      <c r="A1" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="63"/>
       <c r="D1" s="37"/>
-      <c r="E1" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="56"/>
-      <c r="G1" s="57"/>
+      <c r="E1" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="59"/>
+      <c r="G1" s="60"/>
       <c r="H1" s="37"/>
       <c r="I1" s="37"/>
       <c r="J1" s="37"/>
@@ -1182,7 +1194,7 @@
     </row>
     <row r="9" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="68"/>
       <c r="C9" s="68"/>
@@ -1213,13 +1225,13 @@
         <v>11</v>
       </c>
       <c r="F10" s="44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G10" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="45" t="s">
         <v>59</v>
-      </c>
-      <c r="H10" s="45" t="s">
-        <v>60</v>
       </c>
       <c r="I10" s="38"/>
       <c r="J10" s="38"/>
@@ -1234,7 +1246,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>12</v>
@@ -1249,7 +1261,7 @@
         <v>5</v>
       </c>
       <c r="H11" s="45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I11" s="38"/>
       <c r="J11" s="38"/>
@@ -1264,7 +1276,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>1</v>
@@ -1297,13 +1309,13 @@
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G13" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="45" t="s">
         <v>61</v>
-      </c>
-      <c r="H13" s="45" t="s">
-        <v>62</v>
       </c>
       <c r="I13" s="38"/>
       <c r="J13" s="38"/>
@@ -1360,7 +1372,7 @@
     </row>
     <row r="17" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" s="65"/>
       <c r="C17" s="65"/>
@@ -1391,10 +1403,10 @@
         <v>36</v>
       </c>
       <c r="F18" s="48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G18" s="49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H18" s="38"/>
       <c r="I18" s="38"/>
@@ -1413,16 +1425,16 @@
         <v>12</v>
       </c>
       <c r="D19" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="21" t="s">
         <v>42</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>43</v>
       </c>
       <c r="F19" s="48" t="s">
         <v>5</v>
       </c>
       <c r="G19" s="49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H19" s="38"/>
       <c r="I19" s="38"/>
@@ -1441,7 +1453,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>1</v>
@@ -1469,10 +1481,10 @@
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
       <c r="F21" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="49" t="s">
         <v>63</v>
-      </c>
-      <c r="G21" s="49" t="s">
-        <v>64</v>
       </c>
       <c r="H21" s="38"/>
       <c r="I21" s="38"/>
@@ -1529,20 +1541,19 @@
       <c r="L24" s="42"/>
     </row>
     <row r="25" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="63"/>
+      <c r="A25" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="72"/>
     </row>
     <row r="26" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
@@ -1570,15 +1581,12 @@
         <v>23</v>
       </c>
       <c r="I26" s="25" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="J26" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="K26" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="L26" s="26" t="s">
+      <c r="K26" s="26" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1587,13 +1595,13 @@
         <v>38</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" s="28" t="s">
         <v>0</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E27" s="28" t="s">
         <v>0</v>
@@ -1608,16 +1616,13 @@
         <v>0</v>
       </c>
       <c r="I27" s="28" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J27" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="K27" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="L27" s="29" t="s">
-        <v>0</v>
+      <c r="K27" s="29" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1652,10 +1657,7 @@
       <c r="J28" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="K28" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="L28" s="26" t="s">
+      <c r="K28" s="26" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1675,8 +1677,7 @@
       <c r="H29" s="25"/>
       <c r="I29" s="25"/>
       <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="26"/>
+      <c r="K29" s="26"/>
     </row>
     <row r="30" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
@@ -1689,10 +1690,11 @@
       <c r="F30" s="31"/>
       <c r="G30" s="31"/>
       <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
+      <c r="I30" s="31" t="s">
+        <v>69</v>
+      </c>
       <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="52"/>
+      <c r="K30" s="52"/>
     </row>
     <row r="31" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="42"/>
@@ -1709,28 +1711,28 @@
       <c r="L31" s="42"/>
     </row>
     <row r="32" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="70" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="71"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="71"/>
-      <c r="L32" s="71"/>
-      <c r="M32" s="72"/>
+      <c r="A32" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="57"/>
     </row>
     <row r="33" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="32" t="s">
         <v>37</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C33" s="33" t="s">
         <v>30</v>
@@ -1751,7 +1753,7 @@
         <v>29</v>
       </c>
       <c r="I33" s="33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J33" s="33" t="s">
         <v>25</v>
@@ -1763,7 +1765,7 @@
         <v>9</v>
       </c>
       <c r="M33" s="53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1771,13 +1773,13 @@
         <v>38</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E34" s="33" t="s">
         <v>0</v>
@@ -1792,10 +1794,10 @@
         <v>0</v>
       </c>
       <c r="I34" s="33" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J34" s="33" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K34" s="33" t="s">
         <v>0</v>
@@ -1842,7 +1844,7 @@
         <v>1</v>
       </c>
       <c r="L35" s="33" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="M35" s="53" t="s">
         <v>1</v>
@@ -1866,7 +1868,7 @@
       <c r="K36" s="33"/>
       <c r="L36" s="33"/>
       <c r="M36" s="53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1880,7 +1882,9 @@
       <c r="F37" s="36"/>
       <c r="G37" s="36"/>
       <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
+      <c r="I37" s="36" t="s">
+        <v>69</v>
+      </c>
       <c r="J37" s="36"/>
       <c r="K37" s="36"/>
       <c r="L37" s="36"/>
@@ -1891,9 +1895,9 @@
     <mergeCell ref="A32:M32"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A25:L25"/>
     <mergeCell ref="A17:G17"/>
     <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A25:K25"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
